--- a/XLSX/Bai 1/students_test_4.xlsx
+++ b/XLSX/Bai 1/students_test_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,82 +453,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hoàng Minh Oanh</t>
+          <t>Hoàng Ngọc Phúc</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8C1</t>
+          <t>6A1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Dũng</t>
+          <t>Trần Thùy Nam</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10A2</t>
+          <t>9B1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lê Ngọc Linh</t>
+          <t>Nguyễn Hữu Bình</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10B1</t>
+          <t>12A3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hoàng Văn Nam</t>
+          <t>Vũ Minh An</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11B1</t>
+          <t>10C2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Phạm Thùy Hà</t>
+          <t>Đỗ Thị Nam</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8C1</t>
+          <t>10A1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Vũ Hữu Hà</t>
+          <t>Phạm Minh Dũng</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -536,172 +536,112 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8B2</t>
+          <t>12C1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Vũ Văn Chi</t>
+          <t>Vũ Văn An</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10A2</t>
+          <t>11B1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lê Văn Oanh</t>
+          <t>Hoàng Thùy Nam</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9A1</t>
+          <t>8B1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lê Văn Oanh</t>
+          <t>Nguyễn Ngọc Dũng</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12B2</t>
+          <t>11B2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Đỗ Gia Hà</t>
+          <t>Phạm Minh Chi</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8A1</t>
+          <t>7B2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Trần Văn An</t>
+          <t>Nguyễn Thị An</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9B1</t>
+          <t>8B3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hoàng Gia Nam</t>
+          <t>Hoàng Thùy Chi</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12B3</t>
+          <t>9B2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hoàng Gia Chi</t>
+          <t>Đỗ Hữu Bình</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9A3</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Trần Hữu Bình</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>6C3</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Nguyễn Hữu An</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>12C3</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Phạm Văn Phúc</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>14</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>6A3</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Phạm Ngọc Chi</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>14</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>11C2</t>
+          <t>11A2</t>
         </is>
       </c>
     </row>
